--- a/node.xlsx
+++ b/node.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="tesseract" sheetId="2" r:id="rId1"/>
+    <sheet name="react-ssr" sheetId="2" r:id="rId1"/>
     <sheet name="Methodology" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
   <si>
     <t>CPU_CLK_UNHALTED_REF</t>
   </si>
@@ -81,63 +81,6 @@
     <t>UOPS_RETIRED.STALL_CYCLES</t>
   </si>
   <si>
-    <t>RS_EVENTS.EMPTY_CYCLES</t>
-  </si>
-  <si>
-    <t>CYCLE_ACTIVITY.CYCLES_MEM_ANY</t>
-  </si>
-  <si>
-    <t>CYCLE_ACTIVITY.CYCLES_L1D_MISS</t>
-  </si>
-  <si>
-    <t>CYCLE_ACTIVITY.CYCLES_L2_MISS</t>
-  </si>
-  <si>
-    <t>CYCLE_ACTIVITY.CYCLES_L3_MISS</t>
-  </si>
-  <si>
-    <t>ICACHE_16B.IFDATA_STALL</t>
-  </si>
-  <si>
-    <t>ICACHE_64B.IFTAG_HIT</t>
-  </si>
-  <si>
-    <t>ICACHE_64B.IFTAG_MISS</t>
-  </si>
-  <si>
-    <t>L2_RQSTS.DEMAND_DATA_RD_MISS</t>
-  </si>
-  <si>
-    <t>L2_RQSTS.DEMAND_DATA_RD_HIT</t>
-  </si>
-  <si>
-    <t>L2_RQSTS.PF_MISS</t>
-  </si>
-  <si>
-    <t>L2_RQSTS.PF_HIT</t>
-  </si>
-  <si>
-    <t>BR_MISP_RETIRED.ALL_BRANCHES</t>
-  </si>
-  <si>
-    <t>L2_RQSTS.CODE_RD_MISS</t>
-  </si>
-  <si>
-    <t>L2_RQSTS.CODE_RD_HIT</t>
-  </si>
-  <si>
-    <t>MEM_LOAD_UOPS_RETIRED.L1_HIT</t>
-  </si>
-  <si>
-    <t>MEM_LOAD_UOPS_RETIRED.L1_MISS</t>
-  </si>
-  <si>
-    <t>Medians were taken from five runs of each group of counters.</t>
-  </si>
-  <si>
-    <t>A shell script invokes "tesseract" for 50 rounds. Each round scans a single image and writes the recognized characters to a file. It takes ~7 seconds for each round to complete.</t>
-  </si>
-  <si>
     <t>One physical core was chosen to have each of its logical cores run an instance of the script.</t>
   </si>
   <si>
@@ -150,17 +93,35 @@
     <t>base_os</t>
   </si>
   <si>
-    <t>shared_ptp_usr</t>
-  </si>
-  <si>
-    <t>shared_ptp_os</t>
+    <t>A shell script runs the benchmark for 50 rounds. Each round repeatedly builds a DOM for ~80 times. It takes ~6 seconds for each round to complete.</t>
+  </si>
+  <si>
+    <t>padded_os</t>
+  </si>
+  <si>
+    <t>Numbers shown are per-round.</t>
+  </si>
+  <si>
+    <t>IDQ_UOPS_NOT_DELIVERED.CORE</t>
+  </si>
+  <si>
+    <t>IDQ_UOPS_NOT_DELIVERED.CORE,cmask=4</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -191,6 +152,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -216,10 +185,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -501,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,930 +488,1361 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
+      <c r="A1" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>32062484019.799999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>102817977.12</v>
-      </c>
-      <c r="D2" s="1">
-        <v>32066212712.299999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>103012561.54000001</v>
-      </c>
-      <c r="F2" s="2">
-        <v>32126265371</v>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>32025867511.900002</v>
+        <v>21167202635.599998</v>
       </c>
       <c r="C3" s="1">
-        <v>102702982.22</v>
+        <v>520987294.98000002</v>
       </c>
       <c r="D3" s="1">
-        <v>32029525120.900002</v>
+        <v>21164614686.299999</v>
       </c>
       <c r="E3" s="1">
-        <v>102982661.81</v>
-      </c>
-      <c r="F3" s="2">
-        <v>32089564318</v>
-      </c>
+        <v>519091163.77999997</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>32025293564</v>
+        <v>21142985958</v>
       </c>
       <c r="C4" s="1">
-        <v>102428032.90000001</v>
+        <v>520371165.66000003</v>
       </c>
       <c r="D4" s="1">
-        <v>32029021440.599998</v>
+        <v>21140411118.5</v>
       </c>
       <c r="E4" s="1">
-        <v>102705013.2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>32089017364</v>
-      </c>
+        <v>518499559.19999999</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21142260946.400002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>519971299.38</v>
+      </c>
+      <c r="D5" s="1">
+        <v>21139665098.099998</v>
+      </c>
+      <c r="E5" s="1">
+        <v>518095922.63999999</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
-        <v>26275855036.5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>62459877.799999997</v>
-      </c>
-      <c r="D5" s="1">
-        <v>26275863151.799999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>62239754.049999997</v>
-      </c>
-      <c r="F5" s="2">
-        <v>26275843611</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>23839492954.599998</v>
+      </c>
+      <c r="C6" s="1">
+        <v>508293166.27999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>23916115380.599998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>500701475.67000002</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>32064945826.5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>103385232.38</v>
-      </c>
-      <c r="D7" s="1">
-        <v>32067348557.299999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>103241261.78</v>
-      </c>
-      <c r="F7" s="2">
-        <v>32095289414</v>
-      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>473174.25</v>
+        <v>21152001829.5</v>
       </c>
       <c r="C8" s="1">
-        <v>23653.53</v>
+        <v>516566089.52999997</v>
       </c>
       <c r="D8" s="1">
-        <v>522057.19</v>
+        <v>21132983990.599998</v>
       </c>
       <c r="E8" s="1">
-        <v>53432.91</v>
-      </c>
-      <c r="F8" s="2">
-        <v>33202.81</v>
-      </c>
+        <v>517588601</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>301286.01</v>
+        <v>53457402.200000003</v>
       </c>
       <c r="C9" s="1">
-        <v>9248.42</v>
+        <v>92128.97</v>
       </c>
       <c r="D9" s="1">
-        <v>332454.34999999998</v>
+        <v>57060919.390000001</v>
       </c>
       <c r="E9" s="1">
-        <v>26492.84</v>
-      </c>
-      <c r="F9" s="2">
-        <v>9423.27</v>
-      </c>
+        <v>100937.13</v>
+      </c>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>49323734.899999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43459.16</v>
+      </c>
+      <c r="D10" s="1">
+        <v>53037753.090000004</v>
+      </c>
+      <c r="E10" s="1">
+        <v>51254.34</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
-        <v>334446.34999999998</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3416.12</v>
-      </c>
-      <c r="D10" s="1">
-        <v>343089.35</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2827.32</v>
-      </c>
-      <c r="F10" s="2">
-        <v>4254.4399999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>87851458.379999995</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3379.34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>27356569.640000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>28211.65</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>32067687734.299999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>103849538.66</v>
-      </c>
-      <c r="D12" s="1">
-        <v>32058525897</v>
-      </c>
-      <c r="E12" s="1">
-        <v>103638768.68000001</v>
-      </c>
-      <c r="F12" s="2">
-        <v>32136428208</v>
-      </c>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
-        <v>16411145.539999999</v>
+        <v>21189550102.200001</v>
       </c>
       <c r="C13" s="1">
-        <v>630896.46</v>
+        <v>517547082.44</v>
       </c>
       <c r="D13" s="1">
-        <v>15655657.390000001</v>
+        <v>21175518422.900002</v>
       </c>
       <c r="E13" s="1">
-        <v>1296989.79</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1070046.4099999999</v>
-      </c>
+        <v>517134247.51999998</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
-        <v>119950982.04000001</v>
+        <v>1021153857.77</v>
       </c>
       <c r="C14" s="1">
-        <v>1316140.97</v>
+        <v>2440370.4900000002</v>
       </c>
       <c r="D14" s="1">
-        <v>119655193.06</v>
+        <v>1091389222.8399999</v>
       </c>
       <c r="E14" s="1">
-        <v>1346502.58</v>
-      </c>
-      <c r="F14" s="2">
-        <v>107326596.2</v>
-      </c>
+        <v>2832197.47</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>88618821.189999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2772273.16</v>
+      </c>
+      <c r="D15" s="1">
+        <v>67259830.379999995</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2052075.08</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
-        <v>3403641.33</v>
-      </c>
-      <c r="C15" s="1">
-        <v>33876.449999999997</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3406146.68</v>
-      </c>
-      <c r="E15" s="1">
-        <v>37391.96</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3010990.02</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>2375034.27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>63122.29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2067335.62</v>
+      </c>
+      <c r="E16" s="1">
+        <v>54229.06</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>32050849297.299999</v>
-      </c>
-      <c r="C17" s="1">
-        <v>105278748.72</v>
-      </c>
-      <c r="D17" s="1">
-        <v>32064399253.599998</v>
-      </c>
-      <c r="E17" s="1">
-        <v>103434340.94</v>
-      </c>
-      <c r="F17" s="2">
-        <v>32132697747</v>
-      </c>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>2597579.56</v>
+        <v>21140258446.599998</v>
       </c>
       <c r="C18" s="1">
-        <v>16973.96</v>
+        <v>516060851.29000002</v>
       </c>
       <c r="D18" s="1">
-        <v>2600353.65</v>
+        <v>21158155566.299999</v>
       </c>
       <c r="E18" s="1">
-        <v>13481.09</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2233614.38</v>
-      </c>
+        <v>518248239.29000002</v>
+      </c>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1">
-        <v>388940553.68000001</v>
+        <v>1237728.1599999999</v>
       </c>
       <c r="C19" s="1">
-        <v>324062</v>
+        <v>29222.560000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>388792017.05000001</v>
+        <v>949287.99</v>
       </c>
       <c r="E19" s="1">
-        <v>395658.34</v>
-      </c>
-      <c r="F19" s="2">
-        <v>451982699.19999999</v>
-      </c>
+        <v>22527.94</v>
+      </c>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>411238454.63999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>101836.21</v>
+      </c>
+      <c r="D20" s="1">
+        <v>400353422.64999998</v>
+      </c>
+      <c r="E20" s="1">
+        <v>99457.8</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1">
-        <v>26148788.550000001</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1859623.51</v>
-      </c>
-      <c r="D20" s="1">
-        <v>26155207.59</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1703417.24</v>
-      </c>
-      <c r="F20" s="2">
-        <v>23336849.059999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>21496284.260000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1854265.72</v>
+      </c>
+      <c r="D21" s="1">
+        <v>20249234.420000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1279135.3899999999</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>32068716996.299999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>104299903.40000001</v>
-      </c>
-      <c r="D22" s="1">
-        <v>32060949129.099998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>103970636.90000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>32132666272</v>
-      </c>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
-        <v>727386</v>
+        <v>21151336602.200001</v>
       </c>
       <c r="C23" s="1">
-        <v>24744.35</v>
+        <v>517599702.04000002</v>
       </c>
       <c r="D23" s="1">
-        <v>730114.29</v>
+        <v>21154117519.599998</v>
       </c>
       <c r="E23" s="1">
-        <v>22168.41</v>
-      </c>
-      <c r="F23" s="2">
-        <v>625249.75</v>
-      </c>
+        <v>516489453.30000001</v>
+      </c>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1">
-        <v>614541.74</v>
+        <v>521771.14</v>
       </c>
       <c r="C24" s="1">
-        <v>18607.46</v>
+        <v>21208.17</v>
       </c>
       <c r="D24" s="1">
-        <v>617225.17000000004</v>
+        <v>499520.67</v>
       </c>
       <c r="E24" s="1">
-        <v>17684.16</v>
-      </c>
-      <c r="F24" s="2">
-        <v>512567.69</v>
-      </c>
+        <v>17941.060000000001</v>
+      </c>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>417772.19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>15702.81</v>
+      </c>
+      <c r="D25" s="1">
+        <v>401529.61</v>
+      </c>
+      <c r="E25" s="1">
+        <v>12676.64</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="1">
-        <v>24720351.73</v>
-      </c>
-      <c r="C25" s="1">
-        <v>151837.62</v>
-      </c>
-      <c r="D25" s="1">
-        <v>25519194.66</v>
-      </c>
-      <c r="E25" s="1">
-        <v>140014.85999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>52862021.359999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>38442264.200000003</v>
+      </c>
+      <c r="C26" s="1">
+        <v>138165.39000000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>39180455.880000003</v>
+      </c>
+      <c r="E26" s="1">
+        <v>162784.68</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>32065831779.299999</v>
-      </c>
-      <c r="C27" s="1">
-        <v>103237210.28</v>
-      </c>
-      <c r="D27" s="1">
-        <v>32057108986</v>
-      </c>
-      <c r="E27" s="1">
-        <v>104016891.16</v>
-      </c>
-      <c r="F27" s="2">
-        <v>32135415343</v>
-      </c>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
-        <v>30782488801</v>
+        <v>21191699782</v>
       </c>
       <c r="C28" s="1">
-        <v>106742520.92</v>
+        <v>520856986.99000001</v>
       </c>
       <c r="D28" s="1">
-        <v>30782785206.299999</v>
+        <v>21159967748.5</v>
       </c>
       <c r="E28" s="1">
-        <v>106273272.33</v>
-      </c>
-      <c r="F28" s="2">
-        <v>30773214101</v>
-      </c>
+        <v>516373330.37</v>
+      </c>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1">
-        <v>7363567673.2600002</v>
+        <v>27962558889.900002</v>
       </c>
       <c r="C29" s="1">
-        <v>19756616.32</v>
+        <v>448680976.75999999</v>
       </c>
       <c r="D29" s="1">
-        <v>7361097238.1099997</v>
+        <v>28268092466.299999</v>
       </c>
       <c r="E29" s="1">
-        <v>20357717.899999999</v>
-      </c>
-      <c r="F29" s="2">
-        <v>7302757490</v>
-      </c>
+        <v>440887647.47000003</v>
+      </c>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15594506128.9</v>
+      </c>
+      <c r="C30" s="1">
+        <v>226568845.90000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>15093612390.6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>226901640.31999999</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2442313821.8499999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>46482369.030000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2338861529.29</v>
+      </c>
+      <c r="E31" s="1">
+        <v>46609118.539999999</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="1">
-        <v>334854090686</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1121949054.6900001</v>
-      </c>
-      <c r="D30" s="1">
-        <v>334736277972</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1127679620.9400001</v>
-      </c>
-      <c r="F30" s="2">
-        <v>336000000000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>32049603974.200001</v>
-      </c>
-      <c r="C32" s="1">
-        <v>103117941.42</v>
-      </c>
-      <c r="D32" s="1">
-        <v>32060478260.099998</v>
-      </c>
-      <c r="E32" s="1">
-        <v>104068053.94</v>
-      </c>
-      <c r="F32" s="2">
-        <v>32114711689</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="1">
-        <v>27457892240.200001</v>
-      </c>
-      <c r="C33" s="1">
-        <v>190269184.75</v>
-      </c>
-      <c r="D33" s="1">
-        <v>27414570818</v>
-      </c>
-      <c r="E33" s="1">
-        <v>189916744</v>
-      </c>
-      <c r="F33" s="2">
-        <v>27392734705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2503477886.98</v>
-      </c>
-      <c r="C34" s="1">
-        <v>15743090.220000001</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2495507550.98</v>
-      </c>
-      <c r="E34" s="1">
-        <v>15504471.140000001</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2509504539</v>
-      </c>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1">
-        <v>185792567.22</v>
+        <v>21073999098.700001</v>
       </c>
       <c r="C35" s="1">
-        <v>13074438.75</v>
+        <v>516418547.63999999</v>
       </c>
       <c r="D35" s="1">
-        <v>173642163.34</v>
+        <v>21124169572.200001</v>
       </c>
       <c r="E35" s="1">
-        <v>12469294.699999999</v>
-      </c>
-      <c r="F35" s="2">
-        <v>195810035.30000001</v>
-      </c>
+        <v>517304461.04000002</v>
+      </c>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>21049891890.700001</v>
+      </c>
+      <c r="C36" s="1">
+        <v>515807641.01999998</v>
+      </c>
+      <c r="D36" s="1">
+        <v>21100015338.900002</v>
+      </c>
+      <c r="E36" s="1">
+        <v>516712564.33999997</v>
+      </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1">
-        <v>32060681625</v>
+        <v>21049154267.900002</v>
       </c>
       <c r="C37" s="1">
-        <v>103468858.26000001</v>
+        <v>515408695.58999997</v>
       </c>
       <c r="D37" s="1">
-        <v>32050552353.700001</v>
+        <v>21099276932</v>
       </c>
       <c r="E37" s="1">
-        <v>103537926.48</v>
-      </c>
-      <c r="F37" s="2">
-        <v>32132401926</v>
-      </c>
+        <v>516310782.19</v>
+      </c>
+      <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1">
-        <v>83581580.640000001</v>
+        <v>23553298471.900002</v>
       </c>
       <c r="C38" s="1">
-        <v>5959425.3899999997</v>
+        <v>503116811.92000002</v>
       </c>
       <c r="D38" s="1">
-        <v>84414691.659999996</v>
+        <v>24178999507.599998</v>
       </c>
       <c r="E38" s="1">
-        <v>6296293.0499999998</v>
-      </c>
-      <c r="F38" s="2">
-        <v>81195216.609999999</v>
-      </c>
+        <v>499768548.98000002</v>
+      </c>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="1">
-        <v>10189163166.5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>12801695.289999999</v>
-      </c>
-      <c r="D39" s="1">
-        <v>10189159520.1</v>
-      </c>
-      <c r="E39" s="1">
-        <v>12827654.02</v>
-      </c>
-      <c r="F39" s="2">
-        <v>10184994748</v>
-      </c>
+      <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1">
-        <v>15124112.75</v>
+        <v>21093999664.599998</v>
       </c>
       <c r="C40" s="1">
-        <v>1410551.44</v>
+        <v>516402639.25</v>
       </c>
       <c r="D40" s="1">
-        <v>15264189.140000001</v>
+        <v>21126113913.900002</v>
       </c>
       <c r="E40" s="1">
-        <v>1397208.58</v>
-      </c>
-      <c r="F40" s="2">
-        <v>15586461.380000001</v>
-      </c>
+        <v>517201018.87</v>
+      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>51840598.810000002</v>
+      </c>
+      <c r="C41" s="1">
+        <v>95999.25</v>
+      </c>
+      <c r="D41" s="1">
+        <v>55294561.57</v>
+      </c>
+      <c r="E41" s="1">
+        <v>97764.57</v>
+      </c>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B42" s="1">
-        <v>32064561772.099998</v>
+        <v>47492064.369999997</v>
       </c>
       <c r="C42" s="1">
-        <v>103306050.73999999</v>
+        <v>45349.97</v>
       </c>
       <c r="D42" s="1">
-        <v>32069784865.099998</v>
+        <v>51430253.090000004</v>
       </c>
       <c r="E42" s="1">
-        <v>103810312.84</v>
-      </c>
-      <c r="F42" s="2">
-        <v>32134961011</v>
-      </c>
+        <v>49875.25</v>
+      </c>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B43" s="1">
-        <v>130286267.81</v>
+        <v>88098639.950000003</v>
       </c>
       <c r="C43" s="1">
-        <v>522179.71</v>
+        <v>3371.11</v>
       </c>
       <c r="D43" s="1">
-        <v>130160306.43000001</v>
+        <v>27218655.710000001</v>
       </c>
       <c r="E43" s="1">
-        <v>504907.29</v>
-      </c>
-      <c r="F43" s="2">
-        <v>130458319.59999999</v>
-      </c>
+        <v>28393.33</v>
+      </c>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="1">
-        <v>88235637.689999998</v>
-      </c>
-      <c r="C44" s="1">
-        <v>758034.19</v>
-      </c>
-      <c r="D44" s="1">
-        <v>88418837.859999999</v>
-      </c>
-      <c r="E44" s="1">
-        <v>800215.68</v>
-      </c>
-      <c r="F44" s="2">
-        <v>87392412.180000007</v>
-      </c>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B45" s="1">
-        <v>283073518.23000002</v>
+        <v>21132242515.200001</v>
       </c>
       <c r="C45" s="1">
-        <v>2214720.94</v>
+        <v>517506410.75999999</v>
       </c>
       <c r="D45" s="1">
-        <v>283101029.48000002</v>
+        <v>21156628077.099998</v>
       </c>
       <c r="E45" s="1">
-        <v>2111867.02</v>
-      </c>
-      <c r="F45" s="2">
-        <v>280871509.5</v>
-      </c>
+        <v>516066782.54000002</v>
+      </c>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1074167905.25</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2328369.17</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1058507103.08</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2805295.45</v>
+      </c>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1">
-        <v>32061299816.700001</v>
+        <v>88758201.200000003</v>
       </c>
       <c r="C47" s="1">
-        <v>103436869.66</v>
+        <v>2865069.21</v>
       </c>
       <c r="D47" s="1">
-        <v>32063930504.599998</v>
+        <v>66653003.5</v>
       </c>
       <c r="E47" s="1">
-        <v>103457208.92</v>
-      </c>
-      <c r="F47" s="2">
-        <v>32128494712</v>
-      </c>
+        <v>2054662.27</v>
+      </c>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1">
-        <v>92797443.090000004</v>
+        <v>2386974.62</v>
       </c>
       <c r="C48" s="1">
-        <v>730376.46</v>
+        <v>65147.61</v>
       </c>
       <c r="D48" s="1">
-        <v>92670391.609999999</v>
+        <v>2045340.04</v>
       </c>
       <c r="E48" s="1">
-        <v>728227.92</v>
-      </c>
-      <c r="F48" s="2">
-        <v>90969975.930000007</v>
-      </c>
+        <v>54127.19</v>
+      </c>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="1">
-        <v>459422234.19999999</v>
-      </c>
-      <c r="C49" s="1">
-        <v>98317.45</v>
-      </c>
-      <c r="D49" s="1">
-        <v>459595680.61000001</v>
-      </c>
-      <c r="E49" s="1">
-        <v>96482.93</v>
-      </c>
-      <c r="F49" s="2">
-        <v>458779104.89999998</v>
-      </c>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
-        <v>12573474.800000001</v>
+        <v>21128505181.5</v>
       </c>
       <c r="C50" s="1">
-        <v>959096.44</v>
+        <v>515630159.56999999</v>
       </c>
       <c r="D50" s="1">
-        <v>12577760.609999999</v>
+        <v>21133656073.700001</v>
       </c>
       <c r="E50" s="1">
-        <v>969585.17</v>
-      </c>
-      <c r="F50" s="2">
-        <v>12971369.699999999</v>
-      </c>
+        <v>516553526.52999997</v>
+      </c>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1278115.8</v>
+      </c>
+      <c r="C51" s="1">
+        <v>30342.49</v>
+      </c>
+      <c r="D51" s="1">
+        <v>944231.3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>22361.75</v>
+      </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1">
-        <v>32067287821.299999</v>
+        <v>409930912.64999998</v>
       </c>
       <c r="C52" s="1">
-        <v>103474759.58</v>
+        <v>106056.2</v>
       </c>
       <c r="D52" s="1">
-        <v>32046131752.599998</v>
+        <v>395914023.45999998</v>
       </c>
       <c r="E52" s="1">
-        <v>104075613.81999999</v>
-      </c>
-      <c r="F52" s="2">
-        <v>32134927709</v>
-      </c>
+        <v>114492.95</v>
+      </c>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1">
-        <v>2269322.54</v>
+        <v>21555088.789999999</v>
       </c>
       <c r="C53" s="1">
-        <v>398006.17</v>
+        <v>1668674.48</v>
       </c>
       <c r="D53" s="1">
-        <v>2369904.1800000002</v>
+        <v>20309977.199999999</v>
       </c>
       <c r="E53" s="1">
-        <v>380570.59</v>
-      </c>
-      <c r="F53" s="2">
-        <v>2330785.73</v>
-      </c>
+        <v>1238719.2</v>
+      </c>
+      <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="1">
-        <v>6145290820.1700001</v>
-      </c>
-      <c r="C54" s="1">
-        <v>16229527.970000001</v>
-      </c>
-      <c r="D54" s="1">
-        <v>6145273433.9899998</v>
-      </c>
-      <c r="E54" s="1">
-        <v>16059314.210000001</v>
-      </c>
-      <c r="F54" s="2">
-        <v>6146358064</v>
-      </c>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1">
-        <v>225989809.96000001</v>
+        <v>21149942897.700001</v>
       </c>
       <c r="C55" s="1">
-        <v>748105.32</v>
+        <v>516146376.29000002</v>
       </c>
       <c r="D55" s="1">
-        <v>226090649.80000001</v>
+        <v>21074689360.099998</v>
       </c>
       <c r="E55" s="1">
-        <v>771295.63</v>
-      </c>
-      <c r="F55" s="2">
-        <v>225932572.09999999</v>
+        <v>515924629.30000001</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="1">
+        <v>521680.35</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20920.16</v>
+      </c>
+      <c r="D56" s="1">
+        <v>502752.6</v>
+      </c>
+      <c r="E56" s="1">
+        <v>17665.310000000001</v>
+      </c>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1">
+        <v>417095.48</v>
+      </c>
+      <c r="C57" s="1">
+        <v>15486.96</v>
+      </c>
+      <c r="D57" s="1">
+        <v>400807.3</v>
+      </c>
+      <c r="E57" s="1">
+        <v>12690.26</v>
+      </c>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="1">
+        <v>37962779.039999999</v>
+      </c>
+      <c r="C58" s="1">
+        <v>137221.04</v>
+      </c>
+      <c r="D58" s="1">
+        <v>38857016.689999998</v>
+      </c>
+      <c r="E58" s="1">
+        <v>159263.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>21126612562</v>
+      </c>
+      <c r="C60" s="1">
+        <v>517005363.95999998</v>
+      </c>
+      <c r="D60" s="1">
+        <v>21128110723.200001</v>
+      </c>
+      <c r="E60" s="1">
+        <v>515879738.31999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="1">
+        <v>27891517726.099998</v>
+      </c>
+      <c r="C61" s="1">
+        <v>446088590.86000001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>28280101377.5</v>
+      </c>
+      <c r="E61" s="1">
+        <v>441462144.66000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="1">
+        <v>15521846613</v>
+      </c>
+      <c r="C62" s="1">
+        <v>225250634.87</v>
+      </c>
+      <c r="D62" s="1">
+        <v>15085909269.700001</v>
+      </c>
+      <c r="E62" s="1">
+        <v>226955280.66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2428232863.8099999</v>
+      </c>
+      <c r="C63" s="1">
+        <v>46228629.950000003</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2335460566.8699999</v>
+      </c>
+      <c r="E63" s="1">
+        <v>46604012.140000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="1">
+        <v>21192371526</v>
+      </c>
+      <c r="C67" s="1">
+        <v>522470608.25999999</v>
+      </c>
+      <c r="D67" s="1">
+        <v>21185109182.299999</v>
+      </c>
+      <c r="E67" s="1">
+        <v>522214635.22000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1">
+        <v>21168123491.400002</v>
+      </c>
+      <c r="C68" s="1">
+        <v>521876657.75</v>
+      </c>
+      <c r="D68" s="1">
+        <v>21160884048.299999</v>
+      </c>
+      <c r="E68" s="1">
+        <v>521631550.31999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="1">
+        <v>21167368975</v>
+      </c>
+      <c r="C69" s="1">
+        <v>521477033.91000003</v>
+      </c>
+      <c r="D69" s="1">
+        <v>21160157671.700001</v>
+      </c>
+      <c r="E69" s="1">
+        <v>521226741.14999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
+        <v>23898524935.900002</v>
+      </c>
+      <c r="C70" s="1">
+        <v>509243618.58999997</v>
+      </c>
+      <c r="D70" s="1">
+        <v>24037159941.200001</v>
+      </c>
+      <c r="E70" s="1">
+        <v>505768560.25999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="1">
+        <v>21186069218.900002</v>
+      </c>
+      <c r="C72" s="1">
+        <v>521387458.70999998</v>
+      </c>
+      <c r="D72" s="1">
+        <v>21155568899.5</v>
+      </c>
+      <c r="E72" s="1">
+        <v>518516461.60000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1">
+        <v>52278262.979999997</v>
+      </c>
+      <c r="C73" s="1">
+        <v>89458.85</v>
+      </c>
+      <c r="D73" s="1">
+        <v>53544953.859999999</v>
+      </c>
+      <c r="E73" s="1">
+        <v>95081.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" s="1">
+        <v>48123476.950000003</v>
+      </c>
+      <c r="C74" s="1">
+        <v>42753.2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>49591550.009999998</v>
+      </c>
+      <c r="E74" s="1">
+        <v>48573.37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1">
+        <v>88440355.099999994</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3432.13</v>
+      </c>
+      <c r="D75" s="1">
+        <v>27419196.239999998</v>
+      </c>
+      <c r="E75" s="1">
+        <v>28387.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="B77" s="1">
+        <v>21211622304.099998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>521270687.74000001</v>
+      </c>
+      <c r="D77" s="1">
+        <v>21200301461.099998</v>
+      </c>
+      <c r="E77" s="1">
+        <v>517488882.06999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1086221893.9000001</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2397705.75</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1102064282.46</v>
+      </c>
+      <c r="E78" s="1">
+        <v>2960105.13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
+        <v>92468092.040000007</v>
+      </c>
+      <c r="C79" s="1">
+        <v>2819892.29</v>
+      </c>
+      <c r="D79" s="1">
+        <v>66799190.409999996</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2069871.92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2456793.52</v>
+      </c>
+      <c r="C80" s="1">
+        <v>65137.93</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2057671.84</v>
+      </c>
+      <c r="E80" s="1">
+        <v>54540.82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="1">
+        <v>21183334791.299999</v>
+      </c>
+      <c r="C82" s="1">
+        <v>516841205.91000003</v>
+      </c>
+      <c r="D82" s="1">
+        <v>21201009854.799999</v>
+      </c>
+      <c r="E82" s="1">
+        <v>521973779.66000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1252908.6000000001</v>
+      </c>
+      <c r="C83" s="1">
+        <v>29545.37</v>
+      </c>
+      <c r="D83" s="1">
+        <v>945626.96</v>
+      </c>
+      <c r="E83" s="1">
+        <v>22522.29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="1">
+        <v>410508184.45999998</v>
+      </c>
+      <c r="C84" s="1">
+        <v>96741.81</v>
+      </c>
+      <c r="D84" s="1">
+        <v>398160461.37</v>
+      </c>
+      <c r="E84" s="1">
+        <v>107927.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="1">
+        <v>21578260.010000002</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1705937.54</v>
+      </c>
+      <c r="D85" s="1">
+        <v>20424410.77</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1274559.21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>21157122822.299999</v>
+      </c>
+      <c r="C87" s="1">
+        <v>520112940.27999997</v>
+      </c>
+      <c r="D87" s="1">
+        <v>21162504985.799999</v>
+      </c>
+      <c r="E87" s="1">
+        <v>517238228.89999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="1">
+        <v>518055.4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>20981.88</v>
+      </c>
+      <c r="D88" s="1">
+        <v>503820.79999999999</v>
+      </c>
+      <c r="E88" s="1">
+        <v>17648.240000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="1">
+        <v>416804.15</v>
+      </c>
+      <c r="C89" s="1">
+        <v>15587.45</v>
+      </c>
+      <c r="D89" s="1">
+        <v>402538.13</v>
+      </c>
+      <c r="E89" s="1">
+        <v>12835.49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="1">
+        <v>38041704.140000001</v>
+      </c>
+      <c r="C90" s="1">
+        <v>135293.12</v>
+      </c>
+      <c r="D90" s="1">
+        <v>38771721.700000003</v>
+      </c>
+      <c r="E90" s="1">
+        <v>163889.22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1">
+        <v>21221173131</v>
+      </c>
+      <c r="C92" s="1">
+        <v>522040718.95999998</v>
+      </c>
+      <c r="D92" s="1">
+        <v>21207889067.799999</v>
+      </c>
+      <c r="E92" s="1">
+        <v>522026729.99000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="1">
+        <v>27905195661.200001</v>
+      </c>
+      <c r="C93" s="1">
+        <v>450550895.87</v>
+      </c>
+      <c r="D93" s="1">
+        <v>28265112456.200001</v>
+      </c>
+      <c r="E93" s="1">
+        <v>446155598.24000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="1">
+        <v>15700459619.299999</v>
+      </c>
+      <c r="C94" s="1">
+        <v>227208128.30000001</v>
+      </c>
+      <c r="D94" s="1">
+        <v>15180467674.5</v>
+      </c>
+      <c r="E94" s="1">
+        <v>229260115.59999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2471067868.1999998</v>
+      </c>
+      <c r="C95" s="1">
+        <v>46677996.810000002</v>
+      </c>
+      <c r="D95" s="1">
+        <v>2358517806.8400002</v>
+      </c>
+      <c r="E95" s="1">
+        <v>47127514.409999996</v>
       </c>
     </row>
   </sheetData>
@@ -1451,25 +1852,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/node.xlsx
+++ b/node.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="react-ssr" sheetId="2" r:id="rId1"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId2"/>
+    <sheet name="alignment test" sheetId="7" r:id="rId2"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
   <si>
     <t>CPU_CLK_UNHALTED_REF</t>
   </si>
@@ -115,13 +116,53 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>1G 2j</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>force 2M alignment of libraries</t>
+  </si>
+  <si>
+    <t>shared PTPs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> per transaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> total (8000000) </t>
+  </si>
+  <si>
+    <t>force/base</t>
+  </si>
+  <si>
+    <t>shared/base</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED_4K</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_COMPLETED_2M_4M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,12 +202,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,20 +225,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="5" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -473,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1852,6 +1908,415 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>22185252.507516999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1331115150451</v>
+      </c>
+      <c r="D4" s="5">
+        <v>22033026.7557</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1321981605342</v>
+      </c>
+      <c r="F4" s="5">
+        <v>22088815.276999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1325328916620</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <f>E4/C4</f>
+        <v>0.99313842599875346</v>
+      </c>
+      <c r="J4" s="2">
+        <f>G4/C4</f>
+        <v>0.99565309295064397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8230.2598670000007</v>
+      </c>
+      <c r="C5" s="2">
+        <v>493815592</v>
+      </c>
+      <c r="D5" s="5">
+        <v>9028.8501419999993</v>
+      </c>
+      <c r="E5" s="2">
+        <v>541731008.5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>9023.1370079999997</v>
+      </c>
+      <c r="G5" s="2">
+        <v>541388220.5</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <f t="shared" ref="I5:I7" si="0">E5/C5</f>
+        <v>1.0970309914799126</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J7" si="1">G5/C5</f>
+        <v>1.0963368295183356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3.2911169999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>197467</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.4515250000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>207091.5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.3312170000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <v>199873</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0487397894331711</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0121843143411304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="5">
+        <v>32964.432542000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1977865952.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>30269.602591999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1816176155.5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>29640.436841999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1778426210.5</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91825037647489405</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.89916417654699476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/node.xlsx
+++ b/node.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="react-ssr" sheetId="2" r:id="rId1"/>
-    <sheet name="alignment test" sheetId="7" r:id="rId2"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId3"/>
+    <sheet name="final" sheetId="8" r:id="rId1"/>
+    <sheet name="react-ssr" sheetId="2" r:id="rId2"/>
+    <sheet name="alignment test" sheetId="7" r:id="rId3"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>CPU_CLK_UNHALTED_REF</t>
   </si>
@@ -146,6 +147,51 @@
   </si>
   <si>
     <t>ITLB_MISSES.WALK_COMPLETED_2M_4M</t>
+  </si>
+  <si>
+    <t>M_L</t>
+  </si>
+  <si>
+    <t>Ms_L</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L2_MISS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.CYCLES_L3_MISS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L1D_MISS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L2_MISS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS</t>
+  </si>
+  <si>
+    <t>ICACHE_16B.IFDATA_STALL</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_HIT</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_MISS</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL</t>
+  </si>
+  <si>
+    <t>ITLB.ITLB_FLUSH</t>
+  </si>
+  <si>
+    <t>M-s_L</t>
+  </si>
+  <si>
+    <t>1 physical core</t>
   </si>
 </sst>
 </file>
@@ -233,7 +279,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -245,6 +291,10 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -527,6 +577,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1325821355215</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1324026912858</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1308275740100</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>56964219</v>
+      </c>
+      <c r="C4" s="1">
+        <v>51338689</v>
+      </c>
+      <c r="D4" s="1">
+        <v>39810121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5103176507</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4470949915</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3948846915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>101804469</v>
+      </c>
+      <c r="C6" s="1">
+        <v>101517354</v>
+      </c>
+      <c r="D6" s="1">
+        <v>101624760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4129604888</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3970553167</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4064424113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>198894995</v>
+      </c>
+      <c r="C8" s="1">
+        <v>152466971</v>
+      </c>
+      <c r="D8" s="1">
+        <v>140168705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5378653087</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3914837841</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3482709555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3513504551681</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3527322920107</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3507827949246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1">
+        <v>78874361786</v>
+      </c>
+      <c r="C11" s="1">
+        <v>73623520233</v>
+      </c>
+      <c r="D11" s="1">
+        <v>78152236001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1">
+        <v>38666441746</v>
+      </c>
+      <c r="C12" s="1">
+        <v>37855679209</v>
+      </c>
+      <c r="D12" s="1">
+        <v>38613025160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1">
+        <v>57134310189</v>
+      </c>
+      <c r="C13" s="1">
+        <v>55025612827</v>
+      </c>
+      <c r="D13" s="1">
+        <v>56484221174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43197174562</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41267515542</v>
+      </c>
+      <c r="D14" s="1">
+        <v>42407526710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
+        <v>29973877259</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30075386914</v>
+      </c>
+      <c r="D15" s="1">
+        <v>29389120367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1362298141004</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1341016837947</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1346477748276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3529963477607</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3507813263508</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3549726677754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="1">
+        <v>21970234076</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20318224707</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15747491018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <v>547683905194</v>
+      </c>
+      <c r="C19" s="1">
+        <v>546118152931</v>
+      </c>
+      <c r="D19" s="1">
+        <v>548415572973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="1">
+        <v>34750082784</v>
+      </c>
+      <c r="C20" s="1">
+        <v>35911167768</v>
+      </c>
+      <c r="D20" s="1">
+        <v>36083068387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1">
+        <v>23518214921</v>
+      </c>
+      <c r="C21" s="1">
+        <v>11043158938</v>
+      </c>
+      <c r="D21" s="1">
+        <v>6768157142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1">
+        <v>70828</v>
+      </c>
+      <c r="C22" s="1">
+        <v>70281</v>
+      </c>
+      <c r="D22" s="1">
+        <v>70044</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1906,11 +2284,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
@@ -1941,18 +2319,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -2315,7 +2693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>

--- a/node.xlsx
+++ b/node.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
   <si>
     <t>CPU_CLK_UNHALTED_REF</t>
   </si>
@@ -192,14 +192,18 @@
   </si>
   <si>
     <t>1 physical core</t>
+  </si>
+  <si>
+    <t>Ms_L/M_L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -279,7 +283,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -291,10 +295,13 @@
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -580,7 +587,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,30 +595,32 @@
     <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="13" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -627,7 +636,10 @@
       <c r="D3" s="2">
         <v>1308275740100</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="12">
+        <f>1-D3/C3</f>
+        <v>1.1896414344025663E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -642,6 +654,10 @@
       <c r="D4" s="1">
         <v>39810121</v>
       </c>
+      <c r="E4" s="12">
+        <f t="shared" ref="E4:E22" si="0">1-D4/C4</f>
+        <v>0.22455906499677081</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -656,6 +672,10 @@
       <c r="D5" s="1">
         <v>3948846915</v>
       </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>0.1167767498911918</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -670,6 +690,10 @@
       <c r="D6" s="1">
         <v>101624760</v>
       </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.0580062991003558E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -684,6 +708,10 @@
       <c r="D7" s="1">
         <v>4064424113</v>
       </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.3641780389739742E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -698,6 +726,10 @@
       <c r="D8" s="1">
         <v>140168705</v>
       </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>8.0661837244736745E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -712,6 +744,10 @@
       <c r="D9" s="1">
         <v>3482709555</v>
       </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.11038216742321516</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -726,6 +762,10 @@
       <c r="D10" s="1">
         <v>3507827949246</v>
       </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>5.5268460820163678E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -740,6 +780,10 @@
       <c r="D11" s="1">
         <v>78152236001</v>
       </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>-6.151180701041925E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -754,6 +798,10 @@
       <c r="D12" s="1">
         <v>38613025160</v>
       </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.0006138228790382E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -768,6 +816,10 @@
       <c r="D13" s="1">
         <v>56484221174</v>
       </c>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.6507807402088357E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -782,6 +834,10 @@
       <c r="D14" s="1">
         <v>42407526710</v>
       </c>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.7624904310989074E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -796,6 +852,10 @@
       <c r="D15" s="1">
         <v>29389120367</v>
       </c>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
+        <v>2.2818211747777872E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -810,8 +870,12 @@
       <c r="D16" s="1">
         <v>1346477748276</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
+        <v>-4.0722160784798511E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -824,8 +888,12 @@
       <c r="D17" s="1">
         <v>3549726677754</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.1948587652035991E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -838,8 +906,12 @@
       <c r="D18" s="1">
         <v>15747491018</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.22495733534363849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -852,8 +924,12 @@
       <c r="D19" s="1">
         <v>548415572973</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="12">
+        <f t="shared" si="0"/>
+        <v>-4.2068186704100619E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -866,8 +942,12 @@
       <c r="D20" s="1">
         <v>36083068387</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="12">
+        <f t="shared" si="0"/>
+        <v>-4.7868289917649687E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -880,8 +960,12 @@
       <c r="D21" s="1">
         <v>6768157142</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="12">
+        <f t="shared" si="0"/>
+        <v>0.38711765537391019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -893,6 +977,10 @@
       </c>
       <c r="D22" s="1">
         <v>70044</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="0"/>
+        <v>3.3721774021427953E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2319,18 +2407,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>

--- a/node.xlsx
+++ b/node.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winnie/Development/research/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{38186611-1252-49AA-A6AB-FEA13263B3C1}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="final" sheetId="8" r:id="rId1"/>
-    <sheet name="react-ssr" sheetId="2" r:id="rId2"/>
-    <sheet name="alignment test" sheetId="7" r:id="rId3"/>
-    <sheet name="Methodology" sheetId="6" r:id="rId4"/>
+    <sheet name="data-superpg" sheetId="9" r:id="rId1"/>
+    <sheet name="final" sheetId="8" r:id="rId2"/>
+    <sheet name="react-ssr" sheetId="2" r:id="rId3"/>
+    <sheet name="alignment test" sheetId="7" r:id="rId4"/>
+    <sheet name="Methodology" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
   <si>
     <t>CPU_CLK_UNHALTED_REF</t>
   </si>
@@ -195,17 +203,56 @@
   </si>
   <si>
     <t>Ms_L/M_L</t>
+  </si>
+  <si>
+    <t>iterations = 100</t>
+  </si>
+  <si>
+    <t>4 hyperthreads/2cores</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> node index.js &gt;&amp; /dev/null</t>
+  </si>
+  <si>
+    <t>code no superpage, data no superpage</t>
+  </si>
+  <si>
+    <t>code no superpage, data superpage</t>
+  </si>
+  <si>
+    <t>code superpage, data no superpage</t>
+  </si>
+  <si>
+    <t>code superpage, data superpage</t>
+  </si>
+  <si>
+    <t>Col C/Col B</t>
+  </si>
+  <si>
+    <t>Col D/ Col B</t>
+  </si>
+  <si>
+    <t>Col E/ Col B</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P (os + usr)</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P (os + user)</t>
+  </si>
+  <si>
+    <t>elapse time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +298,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -283,7 +343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -296,12 +356,20 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -316,6 +384,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -583,32 +654,466 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC9DE2B-F246-4FFD-B538-D1EE5E87FC9D}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="36.8125" customWidth="1"/>
+    <col min="2" max="5" width="17.0625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.5">
+      <c r="B5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8">
+        <v>35388438420.707397</v>
+      </c>
+      <c r="C6" s="8">
+        <v>35430393799.9049</v>
+      </c>
+      <c r="D6" s="8">
+        <v>34921808041.769897</v>
+      </c>
+      <c r="E6" s="8">
+        <v>34880732666.752502</v>
+      </c>
+      <c r="G6" s="8">
+        <f>C6/B6</f>
+        <v>1.0011855674076016</v>
+      </c>
+      <c r="H6" s="8">
+        <f>D6/B6</f>
+        <v>0.98681404436697462</v>
+      </c>
+      <c r="I6" s="8">
+        <f>E6/B6</f>
+        <v>0.98565334395603588</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1378851.02</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1383086.2875000001</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1184337.17</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1119978.6399999999</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7:G18" si="0">C7/B7</f>
+        <v>1.0030715918098245</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" ref="H7:H18" si="1">D7/B7</f>
+        <v>0.85893048111898262</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" ref="I7:I18" si="2">E7/B7</f>
+        <v>0.8122550034448246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <v>188655874.54249999</v>
+      </c>
+      <c r="C8" s="8">
+        <v>189362021.36750001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>176016859.72749999</v>
+      </c>
+      <c r="E8" s="8">
+        <v>168905688.095</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0037430418040916</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.93300492314034622</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.89531104453865962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1373329.8425</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1370859.4975000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1364951.7075</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1341041.165</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.9982012005247749</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.99389940075521221</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.97648876730063483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <v>83883996.337500006</v>
+      </c>
+      <c r="C10" s="8">
+        <v>83678590.6875</v>
+      </c>
+      <c r="D10" s="8">
+        <v>83413221.147499993</v>
+      </c>
+      <c r="E10" s="8">
+        <v>80690930.282499999</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99755131301597055</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.99438778300325736</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.96193474089917008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>37412028.560000002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>37006602.630000003</v>
+      </c>
+      <c r="D11" s="8">
+        <v>36050020.7575</v>
+      </c>
+      <c r="E11" s="8">
+        <v>36679333.659999996</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.98916321980911048</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.96359438782327278</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.98041552601658744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8">
+        <v>826626855.07749999</v>
+      </c>
+      <c r="C12" s="8">
+        <v>824567132.23249996</v>
+      </c>
+      <c r="D12" s="8">
+        <v>779790397.3125</v>
+      </c>
+      <c r="E12" s="8">
+        <v>791258657.28750002</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99750827978507073</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.94334026595275711</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.95721382922324239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3748304983.8425002</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3716653125.1624999</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2711901250.4324999</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2723631579.2725</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99155568748636003</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.72350069221220314</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.7266301944513659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="8">
+        <v>36030648327.915001</v>
+      </c>
+      <c r="C14" s="8">
+        <v>36056316621.822502</v>
+      </c>
+      <c r="D14" s="8">
+        <v>35520501426.997398</v>
+      </c>
+      <c r="E14" s="8">
+        <v>35508158950.037399</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0007124016663229</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.98584130664886305</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.98549875169820911</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8">
+        <v>46751655130.150002</v>
+      </c>
+      <c r="C15" s="8">
+        <v>46762980871.297501</v>
+      </c>
+      <c r="D15" s="8">
+        <v>46748528350.517502</v>
+      </c>
+      <c r="E15" s="8">
+        <v>46747284103.184898</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0002422532660282</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.99993311938104024</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.99990650540707204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="8">
+        <v>46086256393.125</v>
+      </c>
+      <c r="C16" s="8">
+        <v>46097081223.3349</v>
+      </c>
+      <c r="D16" s="8">
+        <v>46093250344.010002</v>
+      </c>
+      <c r="E16" s="8">
+        <v>46091212580.652397</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.000234881959549</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0001517578434955</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0001075415517615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1177260374.2375</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1176961053.6724999</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1166643216.9300001</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1159155357.4875</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.99974574820358331</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.99098147059066988</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.98462105992336113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1029.3789999999999</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1029.58</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1015.258</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1014.2805</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0001952633578108</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.98628202051916747</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.98533241886613199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8125" style="1" customWidth="1"/>
     <col min="3" max="4" width="18.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="17.6875" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="B1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B2" s="9" t="s">
         <v>52</v>
       </c>
@@ -618,12 +1123,12 @@
       <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,12 +1141,12 @@
       <c r="D3" s="2">
         <v>1308275740100</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <f>1-D3/C3</f>
         <v>1.1896414344025663E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -654,12 +1159,12 @@
       <c r="D4" s="1">
         <v>39810121</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E22" si="0">1-D4/C4</f>
         <v>0.22455906499677081</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,12 +1177,12 @@
       <c r="D5" s="1">
         <v>3948846915</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>0.1167767498911918</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -690,12 +1195,12 @@
       <c r="D6" s="1">
         <v>101624760</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>-1.0580062991003558E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -708,12 +1213,12 @@
       <c r="D7" s="1">
         <v>4064424113</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>-2.3641780389739742E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -726,12 +1231,12 @@
       <c r="D8" s="1">
         <v>140168705</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>8.0661837244736745E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -744,12 +1249,12 @@
       <c r="D9" s="1">
         <v>3482709555</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>0.11038216742321516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -762,12 +1267,12 @@
       <c r="D10" s="1">
         <v>3507827949246</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>5.5268460820163678E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -780,12 +1285,12 @@
       <c r="D11" s="1">
         <v>78152236001</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>-6.151180701041925E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -798,12 +1303,12 @@
       <c r="D12" s="1">
         <v>38613025160</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
         <v>-2.0006138228790382E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -816,12 +1321,12 @@
       <c r="D13" s="1">
         <v>56484221174</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
         <v>-2.6507807402088357E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -834,12 +1339,12 @@
       <c r="D14" s="1">
         <v>42407526710</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>-2.7624904310989074E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -852,12 +1357,12 @@
       <c r="D15" s="1">
         <v>29389120367</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>2.2818211747777872E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -870,12 +1375,12 @@
       <c r="D16" s="1">
         <v>1346477748276</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f t="shared" si="0"/>
         <v>-4.0722160784798511E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -888,12 +1393,12 @@
       <c r="D17" s="1">
         <v>3549726677754</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <f t="shared" si="0"/>
         <v>-1.1948587652035991E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -906,12 +1411,12 @@
       <c r="D18" s="1">
         <v>15747491018</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
         <v>0.22495733534363849</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -924,12 +1429,12 @@
       <c r="D19" s="1">
         <v>548415572973</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
         <v>-4.2068186704100619E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -942,12 +1447,12 @@
       <c r="D20" s="1">
         <v>36083068387</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
         <v>-4.7868289917649687E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -960,12 +1465,12 @@
       <c r="D21" s="1">
         <v>6768157142</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
         <v>0.38711765537391019</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -978,7 +1483,7 @@
       <c r="D22" s="1">
         <v>70044</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <f t="shared" si="0"/>
         <v>3.3721774021427953E-3</v>
       </c>
@@ -991,30 +1496,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.3125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1551,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1569,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1082,7 +1587,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1100,10 +1605,10 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1121,7 +1626,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1644,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1662,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1175,10 +1680,10 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1701,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1214,7 +1719,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1232,7 +1737,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1250,10 +1755,10 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1271,7 +1776,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1289,7 +1794,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1812,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1325,10 +1830,10 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1851,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1869,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1887,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1400,10 +1905,10 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1421,7 +1926,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1439,7 +1944,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1457,7 +1962,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1475,16 +1980,16 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A34" s="3"/>
       <c r="B34" s="1" t="s">
         <v>18</v>
@@ -1500,7 +2005,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +2023,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1536,7 +2041,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1554,7 +2059,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1572,10 +2077,10 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1593,7 +2098,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +2116,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1629,7 +2134,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1647,10 +2152,10 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +2173,7 @@
       </c>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +2191,7 @@
       </c>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1704,7 +2209,7 @@
       </c>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1722,10 +2227,10 @@
       </c>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1743,7 +2248,7 @@
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1761,7 +2266,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1779,7 +2284,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1797,10 +2302,10 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.5">
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -1818,7 +2323,7 @@
       </c>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -1836,7 +2341,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1854,7 +2359,7 @@
       </c>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -1871,7 +2376,7 @@
         <v>159263.96</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -1888,7 +2393,7 @@
         <v>515879738.31999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +2410,7 @@
         <v>441462144.66000003</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1922,7 +2427,7 @@
         <v>226955280.66</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -1939,12 +2444,12 @@
         <v>46604012.140000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66" s="3"/>
       <c r="B66" s="1" t="s">
         <v>18</v>
@@ -1959,7 +2464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -1976,7 +2481,7 @@
         <v>522214635.22000003</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -1993,7 +2498,7 @@
         <v>521631550.31999999</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -2010,7 +2515,7 @@
         <v>521226741.14999998</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2027,7 +2532,7 @@
         <v>505768560.25999999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2044,7 +2549,7 @@
         <v>518516461.60000002</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2566,7 @@
         <v>95081.55</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2583,7 @@
         <v>48573.37</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -2095,7 +2600,7 @@
         <v>28387.15</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -2112,7 +2617,7 @@
         <v>517488882.06999999</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2634,7 @@
         <v>2960105.13</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2651,7 @@
         <v>2069871.92</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -2163,7 +2668,7 @@
         <v>54540.82</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -2180,7 +2685,7 @@
         <v>521973779.66000003</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -2197,7 +2702,7 @@
         <v>22522.29</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2214,7 +2719,7 @@
         <v>107927.49</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>12</v>
       </c>
@@ -2231,7 +2736,7 @@
         <v>1274559.21</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -2248,7 +2753,7 @@
         <v>517238228.89999998</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2770,7 @@
         <v>17648.240000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2282,7 +2787,7 @@
         <v>12835.49</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2804,7 @@
         <v>163889.22</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -2316,7 +2821,7 @@
         <v>522026729.99000001</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2838,7 @@
         <v>446155598.24000001</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -2350,7 +2855,7 @@
         <v>229260115.59999999</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -2372,26 +2877,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="35.5" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1875" customWidth="1"/>
+    <col min="3" max="3" width="19.8125" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6875" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -2405,25 +2910,25 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>33</v>
@@ -2451,7 +2956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2483,7 +2988,7 @@
         <v>0.99565309295064397</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2515,7 +3020,7 @@
         <v>1.0963368295183356</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +3052,7 @@
         <v>1.0121843143411304</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>37</v>
       </c>
@@ -2579,7 +3084,7 @@
         <v>0.89916417654699476</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="8"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2591,7 +3096,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="8"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2603,7 +3108,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="8"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2615,7 +3120,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="8"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2627,7 +3132,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2639,7 +3144,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2651,7 +3156,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2663,7 +3168,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2675,7 +3180,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2687,7 +3192,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2699,7 +3204,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -2711,7 +3216,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2723,7 +3228,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A20" s="4"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2735,7 +3240,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2747,7 +3252,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -2759,7 +3264,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A23" s="4"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2781,27 +3286,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>23</v>
       </c>

--- a/node.xlsx
+++ b/node.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{38186611-1252-49AA-A6AB-FEA13263B3C1}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AD471C79-3907-4FBE-88B3-82E87F6637A1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="71">
   <si>
     <t>CPU_CLK_UNHALTED_REF</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>elapse time</t>
+  </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t>no SMT</t>
+  </si>
+  <si>
+    <t>2 processes/2cores</t>
   </si>
 </sst>
 </file>
@@ -252,7 +261,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,6 +320,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -343,7 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -359,9 +383,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -370,6 +391,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -655,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC9DE2B-F246-4FFD-B538-D1EE5E87FC9D}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -667,418 +695,588 @@
     <col min="2" max="5" width="17.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>55</v>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.65">
+      <c r="A1" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="78.75" x14ac:dyDescent="0.5">
-      <c r="B5" s="14" t="s">
+    <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="B6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7" s="8">
         <v>35388438420.707397</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>35430393799.9049</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D7" s="8">
         <v>34921808041.769897</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E7" s="8">
         <v>34880732666.752502</v>
       </c>
-      <c r="G6" s="8">
-        <f>C6/B6</f>
+      <c r="G7" s="8">
+        <f>C7/B7</f>
         <v>1.0011855674076016</v>
       </c>
-      <c r="H6" s="8">
-        <f>D6/B6</f>
+      <c r="H7" s="8">
+        <f>D7/B7</f>
         <v>0.98681404436697462</v>
       </c>
-      <c r="I6" s="8">
-        <f>E6/B6</f>
+      <c r="I7" s="8">
+        <f>E7/B7</f>
         <v>0.98565334395603588</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A7" s="16" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B8" s="8">
         <v>1378851.02</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C8" s="8">
         <v>1383086.2875000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D8" s="8">
         <v>1184337.17</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E8" s="8">
         <v>1119978.6399999999</v>
       </c>
-      <c r="G7" s="8">
-        <f t="shared" ref="G7:G18" si="0">C7/B7</f>
+      <c r="G8" s="8">
+        <f t="shared" ref="G8:G19" si="0">C8/B8</f>
         <v>1.0030715918098245</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" ref="H7:H18" si="1">D7/B7</f>
+      <c r="H8" s="8">
+        <f t="shared" ref="H8:H19" si="1">D8/B8</f>
         <v>0.85893048111898262</v>
       </c>
-      <c r="I7" s="8">
-        <f t="shared" ref="I7:I18" si="2">E7/B7</f>
+      <c r="I8" s="8">
+        <f t="shared" ref="I8:I19" si="2">E8/B8</f>
         <v>0.8122550034448246</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A8" s="16" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B9" s="8">
         <v>188655874.54249999</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C9" s="8">
         <v>189362021.36750001</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D9" s="8">
         <v>176016859.72749999</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E9" s="8">
         <v>168905688.095</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>1.0037430418040916</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>0.93300492314034622</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I9" s="8">
         <f t="shared" si="2"/>
         <v>0.89531104453865962</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A9" s="16" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="8">
         <v>1373329.8425</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C10" s="8">
         <v>1370859.4975000001</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D10" s="8">
         <v>1364951.7075</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E10" s="8">
         <v>1341041.165</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>0.9982012005247749</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>0.99389940075521221</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I10" s="8">
         <f t="shared" si="2"/>
         <v>0.97648876730063483</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A10" s="16" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="8">
         <v>83883996.337500006</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="8">
         <v>83678590.6875</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D11" s="8">
         <v>83413221.147499993</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E11" s="8">
         <v>80690930.282499999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
         <v>0.99755131301597055</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>0.99438778300325736</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I11" s="8">
         <f t="shared" si="2"/>
         <v>0.96193474089917008</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A11" s="16" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B12" s="8">
         <v>37412028.560000002</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C12" s="8">
         <v>37006602.630000003</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>36050020.7575</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E12" s="8">
         <v>36679333.659999996</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
         <v>0.98916321980911048</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>0.96359438782327278</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I12" s="8">
         <f t="shared" si="2"/>
         <v>0.98041552601658744</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A12" s="16" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <v>826626855.07749999</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C13" s="8">
         <v>824567132.23249996</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D13" s="8">
         <v>779790397.3125</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E13" s="8">
         <v>791258657.28750002</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <f t="shared" si="0"/>
         <v>0.99750827978507073</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>0.94334026595275711</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <f t="shared" si="2"/>
         <v>0.95721382922324239</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <v>3748304983.8425002</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C14" s="8">
         <v>3716653125.1624999</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D14" s="8">
         <v>2711901250.4324999</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E14" s="8">
         <v>2723631579.2725</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <f t="shared" si="0"/>
         <v>0.99155568748636003</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>0.72350069221220314</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I14" s="8">
         <f t="shared" si="2"/>
         <v>0.7266301944513659</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A14" s="16" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B15" s="8">
         <v>36030648327.915001</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C15" s="8">
         <v>36056316621.822502</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D15" s="8">
         <v>35520501426.997398</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>35508158950.037399</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <f t="shared" si="0"/>
         <v>1.0007124016663229</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>0.98584130664886305</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I15" s="8">
         <f t="shared" si="2"/>
         <v>0.98549875169820911</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A15" s="16" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <v>46751655130.150002</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C16" s="8">
         <v>46762980871.297501</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D16" s="8">
         <v>46748528350.517502</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E16" s="8">
         <v>46747284103.184898</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <f t="shared" si="0"/>
         <v>1.0002422532660282</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <f t="shared" si="1"/>
         <v>0.99993311938104024</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I16" s="8">
         <f t="shared" si="2"/>
         <v>0.99990650540707204</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A16" s="16" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="8">
         <v>46086256393.125</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C17" s="8">
         <v>46097081223.3349</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D17" s="8">
         <v>46093250344.010002</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>46091212580.652397</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>1.000234881959549</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>1.0001517578434955</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I17" s="8">
         <f t="shared" si="2"/>
         <v>1.0001075415517615</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A17" s="16" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B18" s="8">
         <v>1177260374.2375</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C18" s="8">
         <v>1176961053.6724999</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D18" s="8">
         <v>1166643216.9300001</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E18" s="8">
         <v>1159155357.4875</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <f t="shared" si="0"/>
         <v>0.99974574820358331</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
         <v>0.99098147059066988</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I18" s="8">
         <f t="shared" si="2"/>
         <v>0.98462105992336113</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A18" s="17" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B19" s="8">
         <v>1029.3789999999999</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C19" s="8">
         <v>1029.58</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D19" s="8">
         <v>1015.258</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E19" s="8">
         <v>1014.2805</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <f t="shared" si="0"/>
         <v>1.0001952633578108</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H19" s="8">
         <f t="shared" si="1"/>
         <v>0.98628202051916747</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I19" s="8">
         <f t="shared" si="2"/>
+        <v>0.98533241886613199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.65">
+      <c r="A21" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="A26" s="8"/>
+      <c r="B26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8">
+        <v>18249858809.810001</v>
+      </c>
+      <c r="C27" s="8">
+        <v>18270850087.305</v>
+      </c>
+      <c r="D27" s="8">
+        <v>18077693604.705002</v>
+      </c>
+      <c r="E27" s="8">
+        <v>18046952072.825001</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <f>C27/B27</f>
+        <v>1.0011502158846135</v>
+      </c>
+      <c r="H27" s="8">
+        <f>D27/B27</f>
+        <v>0.99056621714725523</v>
+      </c>
+      <c r="I27" s="8">
+        <f>E27/B27</f>
+        <v>0.98888173661508383</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="8">
+        <v>87217879.090000004</v>
+      </c>
+      <c r="C28" s="8">
+        <v>88646873.629999995</v>
+      </c>
+      <c r="D28" s="8">
+        <v>82384890.215000004</v>
+      </c>
+      <c r="E28" s="8">
+        <v>75467389.984999999</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <f t="shared" ref="G28:G31" si="3">C28/B28</f>
+        <v>1.0163841927241251</v>
+      </c>
+      <c r="H28" s="8">
+        <f t="shared" ref="H28:H31" si="4">D28/B28</f>
+        <v>0.94458717724593089</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" ref="I28:I31" si="5">E28/B28</f>
+        <v>0.86527430811663408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8">
+        <v>70270472.165000007</v>
+      </c>
+      <c r="C29" s="8">
+        <v>70144121.525000006</v>
+      </c>
+      <c r="D29" s="8">
+        <v>70457187.969999999</v>
+      </c>
+      <c r="E29" s="8">
+        <v>67742924.480000004</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
+        <f t="shared" si="3"/>
+        <v>0.99820193836604199</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="4"/>
+        <v>1.0026571018985266</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="5"/>
+        <v>0.96403115551770957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1029.3789999999999</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1029.58</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1015.258</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1014.2805</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <f>C30/B30</f>
+        <v>1.0001952633578108</v>
+      </c>
+      <c r="H30" s="8">
+        <f>D30/B30</f>
+        <v>0.98628202051916747</v>
+      </c>
+      <c r="I30" s="8">
+        <f>E30/B30</f>
         <v>0.98533241886613199</v>
       </c>
     </row>
@@ -1105,11 +1303,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="10"/>
       <c r="F1" s="6"/>
     </row>
@@ -2912,18 +3110,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>

--- a/node.xlsx
+++ b/node.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AD471C79-3907-4FBE-88B3-82E87F6637A1}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B9D141A1-6A6B-45B1-805E-7A41CF4ABD98}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,13 +391,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC9DE2B-F246-4FFD-B538-D1EE5E87FC9D}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -696,7 +696,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.65">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="8">
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="8">
@@ -1208,20 +1208,20 @@
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8">
-        <f t="shared" ref="G28:G31" si="3">C28/B28</f>
+        <f t="shared" ref="G28:G29" si="3">C28/B28</f>
         <v>1.0163841927241251</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" ref="H28:H31" si="4">D28/B28</f>
+        <f t="shared" ref="H28:H29" si="4">D28/B28</f>
         <v>0.94458717724593089</v>
       </c>
       <c r="I28" s="8">
-        <f t="shared" ref="I28:I31" si="5">E28/B28</f>
+        <f t="shared" ref="I28:I29" si="5">E28/B28</f>
         <v>0.86527430811663408</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="8">
@@ -1251,33 +1251,33 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="8">
-        <v>1029.3789999999999</v>
+        <v>530.93349999999998</v>
       </c>
       <c r="C30" s="8">
-        <v>1029.58</v>
+        <v>531.13049999999998</v>
       </c>
       <c r="D30" s="8">
-        <v>1015.258</v>
+        <v>525.99800000000005</v>
       </c>
       <c r="E30" s="8">
-        <v>1014.2805</v>
+        <v>524.89200000000005</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8">
         <f>C30/B30</f>
-        <v>1.0001952633578108</v>
+        <v>1.0003710445846796</v>
       </c>
       <c r="H30" s="8">
         <f>D30/B30</f>
-        <v>0.98628202051916747</v>
+        <v>0.99070410889499361</v>
       </c>
       <c r="I30" s="8">
         <f>E30/B30</f>
-        <v>0.98533241886613199</v>
+        <v>0.98862098549065014</v>
       </c>
     </row>
   </sheetData>
@@ -1303,11 +1303,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="10"/>
       <c r="F1" s="6"/>
     </row>
@@ -3110,18 +3110,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>

--- a/node.xlsx
+++ b/node.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29e1f5b82a02f9e3/Paper/git_hub/shared_ptp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B9D141A1-6A6B-45B1-805E-7A41CF4ABD98}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E6933EC4-8748-464A-9071-B54F14FE8CCD}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
   <si>
     <t>CPU_CLK_UNHALTED_REF</t>
   </si>
@@ -205,12 +205,6 @@
     <t>Ms_L/M_L</t>
   </si>
   <si>
-    <t>iterations = 100</t>
-  </si>
-  <si>
-    <t>4 hyperthreads/2cores</t>
-  </si>
-  <si>
     <t xml:space="preserve"> node index.js &gt;&amp; /dev/null</t>
   </si>
   <si>
@@ -250,7 +244,28 @@
     <t>no SMT</t>
   </si>
   <si>
-    <t>2 processes/2cores</t>
+    <t>averaged over 100 iterations x 4 hyperthreads/2cores</t>
+  </si>
+  <si>
+    <t>averaged over 100 iterations x 2cores</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.THREAD_P,usr</t>
+  </si>
+  <si>
+    <t>DTLB_LOAD_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>DTLB_STORE_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>ITLB_MISSES.WALK_PENDING,usr</t>
+  </si>
+  <si>
+    <t>ICACHE_64B.IFTAG_STALL,usr</t>
+  </si>
+  <si>
+    <t>INST_RETIRED.ANY_P,usr</t>
   </si>
 </sst>
 </file>
@@ -367,7 +382,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -393,8 +408,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC9DE2B-F246-4FFD-B538-D1EE5E87FC9D}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -697,45 +710,40 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A1" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
       <c r="B6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.5">
@@ -972,7 +980,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="8">
         <v>36030648327.915001</v>
@@ -1001,7 +1009,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A16" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="8">
         <v>46751655130.150002</v>
@@ -1088,7 +1096,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="8">
         <v>1029.3789999999999</v>
@@ -1117,167 +1125,307 @@
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.65">
       <c r="A21" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A26" s="8"/>
       <c r="B26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A27" s="19" t="s">
-        <v>2</v>
+      <c r="A27" t="s">
+        <v>70</v>
       </c>
       <c r="B27" s="8">
-        <v>18249858809.810001</v>
+        <v>18272473320.9249</v>
       </c>
       <c r="C27" s="8">
-        <v>18270850087.305</v>
+        <v>18266890799.77</v>
       </c>
       <c r="D27" s="8">
-        <v>18077693604.705002</v>
+        <v>18080593038.599899</v>
       </c>
       <c r="E27" s="8">
-        <v>18046952072.825001</v>
+        <v>18050384645.215</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8">
         <f>C27/B27</f>
-        <v>1.0011502158846135</v>
+        <v>0.99969448464601085</v>
       </c>
       <c r="H27" s="8">
         <f>D27/B27</f>
-        <v>0.99056621714725523</v>
+        <v>0.98949894308477293</v>
       </c>
       <c r="I27" s="8">
         <f>E27/B27</f>
-        <v>0.98888173661508383</v>
+        <v>0.98784572445069196</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A28" s="19" t="s">
-        <v>8</v>
+      <c r="A28" t="s">
+        <v>71</v>
       </c>
       <c r="B28" s="8">
-        <v>87217879.090000004</v>
+        <v>87875652.090000004</v>
       </c>
       <c r="C28" s="8">
-        <v>88646873.629999995</v>
+        <v>88256127.049999997</v>
       </c>
       <c r="D28" s="8">
-        <v>82384890.215000004</v>
+        <v>82528229.590000004</v>
       </c>
       <c r="E28" s="8">
-        <v>75467389.984999999</v>
+        <v>75380325.400000006</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8">
         <f t="shared" ref="G28:G29" si="3">C28/B28</f>
-        <v>1.0163841927241251</v>
+        <v>1.0043296971453517</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" ref="H28:H29" si="4">D28/B28</f>
-        <v>0.94458717724593089</v>
+        <v>0.93914784843333732</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" ref="I28:I29" si="5">E28/B28</f>
-        <v>0.86527430811663408</v>
+        <v>0.85780672583570017</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A29" s="19" t="s">
-        <v>12</v>
+      <c r="A29" t="s">
+        <v>72</v>
       </c>
       <c r="B29" s="8">
-        <v>70270472.165000007</v>
+        <v>70347981.894999996</v>
       </c>
       <c r="C29" s="8">
-        <v>70144121.525000006</v>
+        <v>70363091.879999995</v>
       </c>
       <c r="D29" s="8">
-        <v>70457187.969999999</v>
+        <v>70266266.909999996</v>
       </c>
       <c r="E29" s="8">
-        <v>67742924.480000004</v>
+        <v>67740858.879999995</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8">
         <f t="shared" si="3"/>
-        <v>0.99820193836604199</v>
+        <v>1.0002147891750832</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="4"/>
-        <v>1.0026571018985266</v>
+        <v>0.99883841749544477</v>
       </c>
       <c r="I29" s="8">
         <f t="shared" si="5"/>
-        <v>0.96403115551770957</v>
+        <v>0.96293961895180813</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A30" s="20" t="s">
-        <v>67</v>
+      <c r="A30" t="s">
+        <v>73</v>
       </c>
       <c r="B30" s="8">
-        <v>530.93349999999998</v>
+        <v>82042447.620000005</v>
       </c>
       <c r="C30" s="8">
-        <v>531.13049999999998</v>
+        <v>74864658.760000005</v>
       </c>
       <c r="D30" s="8">
-        <v>525.99800000000005</v>
+        <v>63275600.880000003</v>
       </c>
       <c r="E30" s="8">
-        <v>524.89200000000005</v>
+        <v>66214448.664999999</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8">
         <f>C30/B30</f>
-        <v>1.0003710445846796</v>
+        <v>0.91251127839035573</v>
       </c>
       <c r="H30" s="8">
         <f>D30/B30</f>
-        <v>0.99070410889499361</v>
+        <v>0.77125442640469088</v>
       </c>
       <c r="I30" s="8">
         <f>E30/B30</f>
-        <v>0.98862098549065014</v>
+        <v>0.80707549062515394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="8">
+        <v>339995070.05000001</v>
+      </c>
+      <c r="C31" s="8">
+        <v>331442039.17000002</v>
+      </c>
+      <c r="D31" s="8">
+        <v>128115512.36</v>
+      </c>
+      <c r="E31" s="8">
+        <v>128899346.38</v>
+      </c>
+      <c r="G31" s="8">
+        <f t="shared" ref="G31:G35" si="6">C31/B31</f>
+        <v>0.9748436620603288</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" ref="H31:H35" si="7">D31/B31</f>
+        <v>0.37681579424419065</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" ref="I31:I35" si="8">E31/B31</f>
+        <v>0.37912122184902247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="8">
+        <v>18585172163.605</v>
+      </c>
+      <c r="C32" s="8">
+        <v>18590811046.455002</v>
+      </c>
+      <c r="D32" s="8">
+        <v>18396180939.18</v>
+      </c>
+      <c r="E32" s="8">
+        <v>18377656471.400002</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0003034076198145</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="7"/>
+        <v>0.98983107486111443</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="8"/>
+        <v>0.98883434114151647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="8">
+        <v>46793515450.989899</v>
+      </c>
+      <c r="C33" s="8">
+        <v>46813589276.580002</v>
+      </c>
+      <c r="D33" s="8">
+        <v>46803825874.809898</v>
+      </c>
+      <c r="E33" s="8">
+        <v>46807495795.360001</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0004289873371692</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="7"/>
+        <v>1.0002203387311388</v>
+      </c>
+      <c r="I33" s="8">
+        <f t="shared" si="8"/>
+        <v>1.0002987667037913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="8">
+        <v>46153563034.5299</v>
+      </c>
+      <c r="C34" s="8">
+        <v>46176789322.934898</v>
+      </c>
+      <c r="D34" s="8">
+        <v>46171617375.480003</v>
+      </c>
+      <c r="E34" s="8">
+        <v>46175753079.730003</v>
+      </c>
+      <c r="G34" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0005032393357718</v>
+      </c>
+      <c r="H34" s="8">
+        <f t="shared" si="7"/>
+        <v>1.0003911797868477</v>
+      </c>
+      <c r="I34" s="8">
+        <f t="shared" si="8"/>
+        <v>1.000480787261939</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A35" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="8">
+        <v>531.21600000000001</v>
+      </c>
+      <c r="C35" s="8">
+        <v>531.245</v>
+      </c>
+      <c r="D35" s="8">
+        <v>525.77350000000001</v>
+      </c>
+      <c r="E35" s="8">
+        <v>525.07050000000004</v>
+      </c>
+      <c r="G35" s="8">
+        <f t="shared" si="6"/>
+        <v>1.0000545917291648</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="7"/>
+        <v>0.98975463841450562</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="8"/>
+        <v>0.98843125960061451</v>
       </c>
     </row>
   </sheetData>
@@ -1303,11 +1451,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="10"/>
       <c r="F1" s="6"/>
     </row>
@@ -3110,18 +3258,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="21"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>

--- a/node.xlsx
+++ b/node.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdong\OneDrive\Paper\git_hub\shared_ptp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E6933EC4-8748-464A-9071-B54F14FE8CCD}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_48E8C9C14339E77D09F66B3321A9470AAD24B03A" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{D3ADA402-AE80-4348-9466-40AE89F3A85F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC9DE2B-F246-4FFD-B538-D1EE5E87FC9D}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
